--- a/sputnik/personal/uch/uch29.xlsx
+++ b/sputnik/personal/uch/uch29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -34,6 +31,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №29</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,49 +121,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -168,14 +136,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,88 +471,88 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="3">
+        <v>10210.620000000001</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>43330</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
-        <v>10210.620000000001</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>43330</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>43337</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>210.62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43586</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>10065.66</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>43812</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11">
+      <c r="C6" s="4">
+        <v>10065.66</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43812</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>10065</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch29.xlsx
+++ b/sputnik/personal/uch/uch29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №29</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,7 +463,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,9 +551,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11325</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch29.xlsx
+++ b/sputnik/personal/uch/uch29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +153,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,6 +564,18 @@
         <v>11325</v>
       </c>
       <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>44098</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>11325</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch29.xlsx
+++ b/sputnik/personal/uch/uch29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="A10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,6 +579,60 @@
       <c r="D9" s="5">
         <v>11325</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12077.64</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch29.xlsx
+++ b/sputnik/personal/uch/uch29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2019/2020</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,21 +591,33 @@
         <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>12077.64</v>
+        <v>12076.98</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="11">
+        <v>44460</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>12076.98</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="11">
+        <v>44460</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -631,8 +646,14 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="6">
+        <f>SUM(C3:C16)</f>
+        <v>43678.259999999995</v>
+      </c>
+      <c r="D17" s="5">
+        <f>SUM(D3:D16)</f>
+        <v>43678.260000000009</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
